--- a/result_balanced.xlsx
+++ b/result_balanced.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\MTVAE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED772A2D-B9B5-4FB9-92D0-E0A302B009B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B179FCC4-3213-4A03-A009-42779FB57118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="121">
   <si>
     <t>β0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,31 +508,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>B. Unobserved Network Confounder z=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ba1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ba5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ba0.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ba0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ba2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B. Unobserved Network Confounder z=4 (GRL)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B. Unobserved Network Confounder z=4 (HSIC)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -781,10 +769,10 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1088,53 +1076,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CE060C-EDFD-4A22-8191-C9BB0B42A61B}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="2" width="4.34765625" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="8.796875" style="7"/>
+    <col min="3" max="3" width="11.296875" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="8.796875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="C2" s="8">
+      <c r="D2" s="8">
         <v>0</v>
       </c>
-      <c r="D2" s="8">
+      <c r="E2" s="8">
         <v>3</v>
       </c>
-      <c r="E2" s="8">
+      <c r="F2" s="8">
         <v>0</v>
-      </c>
-      <c r="F2" s="8">
-        <v>1</v>
       </c>
       <c r="G2" s="8">
         <v>1</v>
@@ -1143,20 +1129,24 @@
         <v>1</v>
       </c>
       <c r="I2" s="8">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8">
         <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="C4" s="25" t="s">
-        <v>122</v>
-      </c>
+      <c r="A4" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A5" s="9" t="s">
@@ -1177,16 +1167,13 @@
       <c r="F5" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="I5" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="J5" s="21" t="s">
+      <c r="I5" s="24" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1201,22 +1188,23 @@
         <v>18</v>
       </c>
       <c r="D6" s="6">
-        <v>0.20660000000000001</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="E6" s="6">
-        <v>0.20669999999999999</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.14480000000000001</v>
+        <v>0.5484</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.4229</v>
       </c>
       <c r="G6" s="6">
-        <v>0.14630000000000001</v>
+        <v>0.37469999999999998</v>
       </c>
       <c r="H6" s="6">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+        <v>0.307</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.2646</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A7" s="9" t="s">
@@ -1229,25 +1217,22 @@
         <v>19</v>
       </c>
       <c r="D7" s="5">
-        <v>0.25530000000000003</v>
+        <v>0.66690000000000005</v>
       </c>
       <c r="E7" s="5">
-        <v>0.255</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.16600000000000001</v>
+        <v>0.66369999999999996</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.47349999999999998</v>
       </c>
       <c r="G7" s="5">
-        <v>0.17480000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="H7" s="5">
-        <v>0.17150000000000001</v>
+        <v>0.34589999999999999</v>
       </c>
       <c r="I7" s="5">
-        <v>0.1827</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0.2298</v>
+        <v>0.27489999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.1" x14ac:dyDescent="0.5">
@@ -1261,158 +1246,27 @@
         <v>20</v>
       </c>
       <c r="D8" s="6">
-        <v>0.30470000000000003</v>
+        <v>0.76639999999999997</v>
       </c>
       <c r="E8" s="6">
-        <v>0.30280000000000001</v>
+        <v>0.76170000000000004</v>
       </c>
       <c r="F8" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.1769</v>
+        <v>0.54930000000000001</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.49220000000000003</v>
       </c>
       <c r="H8" s="6">
-        <v>0.18210000000000001</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="C10" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="9">
-        <v>0</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="9">
-        <v>3</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0.20660000000000001</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0.20669999999999999</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0.14480000000000001</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0.1431</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0.14280000000000001</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0.1444</v>
-      </c>
-      <c r="J12" s="6">
-        <v>0.14480000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="9">
-        <v>100</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.25530000000000003</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0.255</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0.17380000000000001</v>
-      </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5">
-        <v>0.17319999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0.30470000000000003</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0.30280000000000001</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="3">
-        <v>0.18290000000000001</v>
-      </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6">
-        <v>0.18459999999999999</v>
+        <v>0.4037</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.35089999999999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C10:J10"/>
+  <mergeCells count="1">
+    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/result_balanced.xlsx
+++ b/result_balanced.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\MTVAE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B179FCC4-3213-4A03-A009-42779FB57118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33C0341-0A63-4968-BDD4-749282736E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="126">
   <si>
     <t>β0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -516,11 +516,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ba0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ba0.5</t>
+    <t>ba2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ba5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ba10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ba20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ba50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6~0.405</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7~0.453</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -701,7 +721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -769,8 +789,11 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1076,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CE060C-EDFD-4A22-8191-C9BB0B42A61B}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.5"/>
@@ -1089,7 +1112,7 @@
     <col min="4" max="16384" width="8.796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
       <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
@@ -1112,7 +1135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="D2" s="8">
         <v>0</v>
       </c>
@@ -1132,23 +1155,24 @@
         <v>1</v>
       </c>
       <c r="J2" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A4" s="25" t="s">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C4" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="28"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
@@ -1167,17 +1191,26 @@
       <c r="F5" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="I5" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="I5" s="24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="J5" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
@@ -1185,28 +1218,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0.5484</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0.4229</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0.37469999999999998</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0.307</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0.2646</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="14.1" x14ac:dyDescent="0.5">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
@@ -1214,28 +1238,19 @@
         <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.66690000000000005</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.66369999999999996</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.47349999999999998</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0.44</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0.34589999999999999</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0.27489999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.1" x14ac:dyDescent="0.5">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -1243,30 +1258,77 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="6">
-        <v>0.76639999999999997</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0.76170000000000004</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0.54930000000000001</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0.49220000000000003</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0.4037</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0.35089999999999999</v>
-      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1329,17 +1391,17 @@
       <c r="B4" s="9">
         <v>0</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A5" s="9" t="s">
@@ -1348,25 +1410,25 @@
       <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="25" t="s">
+      <c r="E5" s="28"/>
+      <c r="F5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="25" t="s">
+      <c r="G5" s="28"/>
+      <c r="H5" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="25" t="s">
+      <c r="I5" s="28"/>
+      <c r="J5" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="27"/>
+      <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A6" s="9" t="s">
@@ -1375,7 +1437,7 @@
       <c r="B6" s="9">
         <v>100</v>
       </c>
-      <c r="C6" s="29"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1579,17 +1641,17 @@
       <c r="B13" s="9">
         <v>0</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="28"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A14" s="9" t="s">
@@ -1598,25 +1660,25 @@
       <c r="B14" s="9">
         <v>3</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="25" t="s">
+      <c r="E14" s="28"/>
+      <c r="F14" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="25" t="s">
+      <c r="G14" s="28"/>
+      <c r="H14" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="25" t="s">
+      <c r="I14" s="28"/>
+      <c r="J14" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="K14" s="27"/>
+      <c r="K14" s="28"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A15" s="9" t="s">
@@ -1625,7 +1687,7 @@
       <c r="B15" s="9">
         <v>100</v>
       </c>
-      <c r="C15" s="29"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1829,17 +1891,17 @@
       <c r="B22" s="9">
         <v>0</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="28"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A23" s="9" t="s">
@@ -1848,25 +1910,25 @@
       <c r="B23" s="9">
         <v>3</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="25" t="s">
+      <c r="E23" s="28"/>
+      <c r="F23" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="27"/>
-      <c r="H23" s="25" t="s">
+      <c r="G23" s="28"/>
+      <c r="H23" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="25" t="s">
+      <c r="I23" s="28"/>
+      <c r="J23" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="K23" s="27"/>
+      <c r="K23" s="28"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A24" s="9" t="s">
@@ -1875,7 +1937,7 @@
       <c r="B24" s="9">
         <v>100</v>
       </c>
-      <c r="C24" s="29"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="1" t="s">
         <v>10</v>
       </c>
@@ -2079,15 +2141,15 @@
       <c r="B31" s="9">
         <v>0</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="28"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A32" s="9" t="s">
@@ -2096,21 +2158,21 @@
       <c r="B32" s="9">
         <v>2.5</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="25" t="s">
+      <c r="E32" s="28"/>
+      <c r="F32" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="27"/>
-      <c r="H32" s="25" t="s">
+      <c r="G32" s="28"/>
+      <c r="H32" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="27"/>
+      <c r="I32" s="28"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A33" s="9" t="s">
@@ -2119,7 +2181,7 @@
       <c r="B33" s="9">
         <v>0.5</v>
       </c>
-      <c r="C33" s="29"/>
+      <c r="C33" s="30"/>
       <c r="D33" s="1" t="s">
         <v>10</v>
       </c>
@@ -2288,15 +2350,15 @@
       <c r="B40" s="9">
         <v>0</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="28"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A41" s="9" t="s">
@@ -2305,21 +2367,21 @@
       <c r="B41" s="9">
         <v>2</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="D41" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="27"/>
-      <c r="F41" s="25" t="s">
+      <c r="E41" s="28"/>
+      <c r="F41" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="27"/>
-      <c r="H41" s="25" t="s">
+      <c r="G41" s="28"/>
+      <c r="H41" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="I41" s="27"/>
+      <c r="I41" s="28"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A42" s="9" t="s">
@@ -2328,7 +2390,7 @@
       <c r="B42" s="9">
         <v>1</v>
       </c>
-      <c r="C42" s="29"/>
+      <c r="C42" s="30"/>
       <c r="D42" s="1" t="s">
         <v>10</v>
       </c>
@@ -2497,15 +2559,15 @@
       <c r="B49" s="9">
         <v>0</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="28"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A50" s="9" t="s">
@@ -2514,21 +2576,21 @@
       <c r="B50" s="9">
         <v>1.5</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C50" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="25" t="s">
+      <c r="D50" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="27"/>
-      <c r="F50" s="25" t="s">
+      <c r="E50" s="28"/>
+      <c r="F50" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G50" s="27"/>
-      <c r="H50" s="25" t="s">
+      <c r="G50" s="28"/>
+      <c r="H50" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="I50" s="27"/>
+      <c r="I50" s="28"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A51" s="9" t="s">
@@ -2537,7 +2599,7 @@
       <c r="B51" s="9">
         <v>1.5</v>
       </c>
-      <c r="C51" s="29"/>
+      <c r="C51" s="30"/>
       <c r="D51" s="1" t="s">
         <v>10</v>
       </c>
@@ -2706,15 +2768,15 @@
       <c r="B58" s="9">
         <v>0</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="28"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A59" s="9" t="s">
@@ -2723,21 +2785,21 @@
       <c r="B59" s="9">
         <v>1</v>
       </c>
-      <c r="C59" s="28" t="s">
+      <c r="C59" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="25" t="s">
+      <c r="D59" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="27"/>
-      <c r="F59" s="25" t="s">
+      <c r="E59" s="28"/>
+      <c r="F59" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="27"/>
-      <c r="H59" s="25" t="s">
+      <c r="G59" s="28"/>
+      <c r="H59" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="I59" s="27"/>
+      <c r="I59" s="28"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A60" s="9" t="s">
@@ -2746,7 +2808,7 @@
       <c r="B60" s="9">
         <v>2</v>
       </c>
-      <c r="C60" s="29"/>
+      <c r="C60" s="30"/>
       <c r="D60" s="1" t="s">
         <v>10</v>
       </c>
@@ -2915,15 +2977,15 @@
       <c r="B67" s="9">
         <v>0</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C67" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="28"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A68" s="9" t="s">
@@ -2932,21 +2994,21 @@
       <c r="B68" s="9">
         <v>0.5</v>
       </c>
-      <c r="C68" s="28" t="s">
+      <c r="C68" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D68" s="25" t="s">
+      <c r="D68" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E68" s="27"/>
-      <c r="F68" s="25" t="s">
+      <c r="E68" s="28"/>
+      <c r="F68" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G68" s="27"/>
-      <c r="H68" s="25" t="s">
+      <c r="G68" s="28"/>
+      <c r="H68" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="I68" s="27"/>
+      <c r="I68" s="28"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A69" s="9" t="s">
@@ -2955,7 +3017,7 @@
       <c r="B69" s="9">
         <v>2.5</v>
       </c>
-      <c r="C69" s="29"/>
+      <c r="C69" s="30"/>
       <c r="D69" s="1" t="s">
         <v>10</v>
       </c>
@@ -3224,17 +3286,17 @@
       <c r="B4" s="9">
         <v>0</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A5" s="9" t="s">
@@ -3243,25 +3305,25 @@
       <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="25" t="s">
+      <c r="E5" s="28"/>
+      <c r="F5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="25" t="s">
+      <c r="G5" s="28"/>
+      <c r="H5" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="25" t="s">
+      <c r="I5" s="28"/>
+      <c r="J5" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="27"/>
+      <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A6" s="9" t="s">
@@ -3270,7 +3332,7 @@
       <c r="B6" s="9">
         <v>100</v>
       </c>
-      <c r="C6" s="29"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
@@ -3474,17 +3536,17 @@
       <c r="B13" s="9">
         <v>0</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="28"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A14" s="9" t="s">
@@ -3493,25 +3555,25 @@
       <c r="B14" s="9">
         <v>0</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="25" t="s">
+      <c r="E14" s="28"/>
+      <c r="F14" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="25" t="s">
+      <c r="G14" s="28"/>
+      <c r="H14" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="25" t="s">
+      <c r="I14" s="28"/>
+      <c r="J14" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="27"/>
+      <c r="K14" s="28"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A15" s="9" t="s">
@@ -3520,7 +3582,7 @@
       <c r="B15" s="9">
         <v>3</v>
       </c>
-      <c r="C15" s="29"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="1" t="s">
         <v>10</v>
       </c>
@@ -3730,15 +3792,15 @@
       <c r="B22" s="9">
         <v>0</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A23" s="9" t="s">
@@ -3747,21 +3809,21 @@
       <c r="B23" s="9">
         <v>2.5</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="25" t="s">
+      <c r="E23" s="28"/>
+      <c r="F23" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="27"/>
-      <c r="H23" s="25" t="s">
+      <c r="G23" s="28"/>
+      <c r="H23" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="27"/>
+      <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A24" s="9" t="s">
@@ -3770,7 +3832,7 @@
       <c r="B24" s="9">
         <v>0.5</v>
       </c>
-      <c r="C24" s="29"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="1" t="s">
         <v>10</v>
       </c>
@@ -3939,15 +4001,15 @@
       <c r="B31" s="9">
         <v>0</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="28"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A32" s="9" t="s">
@@ -3956,21 +4018,21 @@
       <c r="B32" s="9">
         <v>2</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="25" t="s">
+      <c r="E32" s="28"/>
+      <c r="F32" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="27"/>
-      <c r="H32" s="25" t="s">
+      <c r="G32" s="28"/>
+      <c r="H32" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I32" s="27"/>
+      <c r="I32" s="28"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A33" s="9" t="s">
@@ -3979,7 +4041,7 @@
       <c r="B33" s="9">
         <v>1</v>
       </c>
-      <c r="C33" s="29"/>
+      <c r="C33" s="30"/>
       <c r="D33" s="1" t="s">
         <v>10</v>
       </c>
@@ -4148,15 +4210,15 @@
       <c r="B40" s="9">
         <v>0</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="28"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A41" s="9" t="s">
@@ -4165,21 +4227,21 @@
       <c r="B41" s="9">
         <v>1.5</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="D41" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="27"/>
-      <c r="F41" s="25" t="s">
+      <c r="E41" s="28"/>
+      <c r="F41" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="27"/>
-      <c r="H41" s="25" t="s">
+      <c r="G41" s="28"/>
+      <c r="H41" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I41" s="27"/>
+      <c r="I41" s="28"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A42" s="9" t="s">
@@ -4188,7 +4250,7 @@
       <c r="B42" s="9">
         <v>1.5</v>
       </c>
-      <c r="C42" s="29"/>
+      <c r="C42" s="30"/>
       <c r="D42" s="1" t="s">
         <v>10</v>
       </c>
@@ -4357,15 +4419,15 @@
       <c r="B49" s="9">
         <v>0</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="28"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A50" s="9" t="s">
@@ -4374,21 +4436,21 @@
       <c r="B50" s="9">
         <v>1</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C50" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="25" t="s">
+      <c r="D50" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="27"/>
-      <c r="F50" s="25" t="s">
+      <c r="E50" s="28"/>
+      <c r="F50" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G50" s="27"/>
-      <c r="H50" s="25" t="s">
+      <c r="G50" s="28"/>
+      <c r="H50" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I50" s="27"/>
+      <c r="I50" s="28"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A51" s="9" t="s">
@@ -4397,7 +4459,7 @@
       <c r="B51" s="9">
         <v>2</v>
       </c>
-      <c r="C51" s="29"/>
+      <c r="C51" s="30"/>
       <c r="D51" s="1" t="s">
         <v>10</v>
       </c>
@@ -4566,15 +4628,15 @@
       <c r="B58" s="9">
         <v>0</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="28"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A59" s="9" t="s">
@@ -4583,21 +4645,21 @@
       <c r="B59" s="9">
         <v>0.5</v>
       </c>
-      <c r="C59" s="28" t="s">
+      <c r="C59" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="25" t="s">
+      <c r="D59" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="27"/>
-      <c r="F59" s="25" t="s">
+      <c r="E59" s="28"/>
+      <c r="F59" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="27"/>
-      <c r="H59" s="25" t="s">
+      <c r="G59" s="28"/>
+      <c r="H59" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I59" s="27"/>
+      <c r="I59" s="28"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A60" s="9" t="s">
@@ -4606,7 +4668,7 @@
       <c r="B60" s="9">
         <v>2.5</v>
       </c>
-      <c r="C60" s="29"/>
+      <c r="C60" s="30"/>
       <c r="D60" s="1" t="s">
         <v>10</v>
       </c>
@@ -4869,15 +4931,15 @@
       <c r="B4" s="9">
         <v>0</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" s="9" t="s">
@@ -4886,21 +4948,21 @@
       <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="25" t="s">
+      <c r="E5" s="28"/>
+      <c r="F5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="25" t="s">
+      <c r="G5" s="28"/>
+      <c r="H5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="27"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" s="9" t="s">
@@ -4909,7 +4971,7 @@
       <c r="B6" s="9">
         <v>100</v>
       </c>
-      <c r="C6" s="29"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
@@ -5072,15 +5134,15 @@
       <c r="B13" s="9">
         <v>0</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="28"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14" s="9" t="s">
@@ -5089,21 +5151,21 @@
       <c r="B14" s="9">
         <v>3</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="25" t="s">
+      <c r="E14" s="28"/>
+      <c r="F14" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="25" t="s">
+      <c r="G14" s="28"/>
+      <c r="H14" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="27"/>
+      <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" s="9" t="s">
@@ -5112,7 +5174,7 @@
       <c r="B15" s="9">
         <v>100</v>
       </c>
-      <c r="C15" s="29"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="1" t="s">
         <v>10</v>
       </c>
@@ -5342,15 +5404,15 @@
       <c r="B4" s="9">
         <v>0</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" s="9" t="s">
@@ -5359,21 +5421,21 @@
       <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="25" t="s">
+      <c r="E5" s="28"/>
+      <c r="F5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="25" t="s">
+      <c r="G5" s="28"/>
+      <c r="H5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="27"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" s="9" t="s">
@@ -5382,7 +5444,7 @@
       <c r="B6" s="9">
         <v>100</v>
       </c>
-      <c r="C6" s="29"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
@@ -5545,15 +5607,15 @@
       <c r="B13" s="9">
         <v>0</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="28"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14" s="9" t="s">
@@ -5562,21 +5624,21 @@
       <c r="B14" s="9">
         <v>3</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="25" t="s">
+      <c r="E14" s="28"/>
+      <c r="F14" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="25" t="s">
+      <c r="G14" s="28"/>
+      <c r="H14" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="27"/>
+      <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" s="9" t="s">
@@ -5585,7 +5647,7 @@
       <c r="B15" s="9">
         <v>0.4</v>
       </c>
-      <c r="C15" s="29"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="1" t="s">
         <v>10</v>
       </c>
@@ -5757,15 +5819,15 @@
       <c r="B22" s="9">
         <v>0</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23" s="9" t="s">
@@ -5774,21 +5836,21 @@
       <c r="B23" s="9">
         <v>3</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="25" t="s">
+      <c r="E23" s="28"/>
+      <c r="F23" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="27"/>
-      <c r="H23" s="25" t="s">
+      <c r="G23" s="28"/>
+      <c r="H23" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="27"/>
+      <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24" s="9" t="s">
@@ -5797,7 +5859,7 @@
       <c r="B24" s="9">
         <v>100</v>
       </c>
-      <c r="C24" s="29"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="1" t="s">
         <v>10</v>
       </c>
@@ -6032,17 +6094,17 @@
       <c r="B4" s="9">
         <v>0</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A5" s="9" t="s">
@@ -6051,25 +6113,25 @@
       <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="25" t="s">
+      <c r="E5" s="28"/>
+      <c r="F5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="25" t="s">
+      <c r="G5" s="28"/>
+      <c r="H5" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="25" t="s">
+      <c r="I5" s="28"/>
+      <c r="J5" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="27"/>
+      <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A6" s="9" t="s">
@@ -6078,7 +6140,7 @@
       <c r="B6" s="9">
         <v>100</v>
       </c>
-      <c r="C6" s="29"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
@@ -6282,17 +6344,17 @@
       <c r="B13" s="9">
         <v>0</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="28"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A14" s="9" t="s">
@@ -6301,25 +6363,25 @@
       <c r="B14" s="9">
         <v>3</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="25" t="s">
+      <c r="E14" s="28"/>
+      <c r="F14" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="25" t="s">
+      <c r="G14" s="28"/>
+      <c r="H14" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="25" t="s">
+      <c r="I14" s="28"/>
+      <c r="J14" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="27"/>
+      <c r="K14" s="28"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A15" s="9" t="s">
@@ -6328,7 +6390,7 @@
       <c r="B15" s="9">
         <v>100</v>
       </c>
-      <c r="C15" s="29"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="1" t="s">
         <v>10</v>
       </c>
@@ -6532,17 +6594,17 @@
       <c r="B22" s="9">
         <v>0</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="28"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A23" s="9" t="s">
@@ -6551,25 +6613,25 @@
       <c r="B23" s="9">
         <v>3</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="25" t="s">
+      <c r="E23" s="28"/>
+      <c r="F23" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="27"/>
-      <c r="H23" s="25" t="s">
+      <c r="G23" s="28"/>
+      <c r="H23" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="25" t="s">
+      <c r="I23" s="28"/>
+      <c r="J23" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="K23" s="27"/>
+      <c r="K23" s="28"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A24" s="9" t="s">
@@ -6578,7 +6640,7 @@
       <c r="B24" s="9">
         <v>100</v>
       </c>
-      <c r="C24" s="29"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="1" t="s">
         <v>10</v>
       </c>
@@ -6782,17 +6844,17 @@
       <c r="B31" s="9">
         <v>0</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="28"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A32" s="9" t="s">
@@ -6801,25 +6863,25 @@
       <c r="B32" s="9">
         <v>3</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="25" t="s">
+      <c r="E32" s="28"/>
+      <c r="F32" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="27"/>
-      <c r="H32" s="25" t="s">
+      <c r="G32" s="28"/>
+      <c r="H32" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="27"/>
-      <c r="J32" s="25" t="s">
+      <c r="I32" s="28"/>
+      <c r="J32" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="27"/>
+      <c r="K32" s="28"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A33" s="9" t="s">
@@ -6828,7 +6890,7 @@
       <c r="B33" s="9">
         <v>100</v>
       </c>
-      <c r="C33" s="29"/>
+      <c r="C33" s="30"/>
       <c r="D33" s="1" t="s">
         <v>10</v>
       </c>

--- a/result_balanced.xlsx
+++ b/result_balanced.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\MTVAE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33C0341-0A63-4968-BDD4-749282736E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4C7C0F-0357-4A8A-AA63-1ADECF696A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="debias" sheetId="12" r:id="rId1"/>
-    <sheet name="network(BI)" sheetId="8" r:id="rId2"/>
-    <sheet name="network(AC)" sheetId="6" r:id="rId3"/>
-    <sheet name="network(L)" sheetId="10" r:id="rId4"/>
-    <sheet name="network(DE)" sheetId="3" r:id="rId5"/>
-    <sheet name="network(FGJK)" sheetId="9" r:id="rId6"/>
+    <sheet name="debias2.2" sheetId="14" r:id="rId1"/>
+    <sheet name="debias2" sheetId="13" r:id="rId2"/>
+    <sheet name="debias" sheetId="12" r:id="rId3"/>
+    <sheet name="network(BI)" sheetId="8" r:id="rId4"/>
+    <sheet name="network(AC)" sheetId="6" r:id="rId5"/>
+    <sheet name="network(L)" sheetId="10" r:id="rId6"/>
+    <sheet name="network(DE)" sheetId="3" r:id="rId7"/>
+    <sheet name="network(FGJK)" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="205">
   <si>
     <t>β0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -541,6 +543,322 @@
   </si>
   <si>
     <t>0.7~0.453</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B. Unobserved Network Confounder z=4 (No Neighbor)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B. Unobserved Network Confounder z=4 Abs error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B. Unobserved Network Confounder z=4 (No Neighbor) Abs error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B. benchmark (z_dim=4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.737]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.680]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.654]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.612]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.470]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.404]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.253]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.206]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.287]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0Y0T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0Y1T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1Y0T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1Y1T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VGAE(A1Y0T0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.572]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.331]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.485]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.369]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.449]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.430]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.490]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.546]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.482]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.641]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.512]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.553]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.554]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.544]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.727]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.663]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.623]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.563]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.724]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.606]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.661]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.640]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.632]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.781]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.685]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0Y0T1+A1Y1T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.796]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.728]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.495]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.585]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.700]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.731]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1Y1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N=100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N=500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1+A1Y1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1A1Y1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.18~0.148</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.33~0.251</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.69~0.449</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.92~0.549</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2~0.651</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B. benchmark z~U(0,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.18~0.161</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.33~0.265</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.69~0.442</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.92~0.523</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2~0.603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B. benchmark z~Bern(0.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zn (9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z+Zn (7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z (8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F (AY)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N (AY)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F+N (AY)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F (A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F+N (A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N (A)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,7 +870,7 @@
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -604,8 +922,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -627,6 +958,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,7 +1058,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -801,16 +1138,79 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1098,11 +1498,1904 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CE060C-EDFD-4A22-8191-C9BB0B42A61B}">
-  <dimension ref="A1:L12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD07EC0-0321-4F3B-A157-6246E289B2C6}">
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="2" width="4.34765625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.296875" style="7" customWidth="1"/>
+    <col min="4" max="13" width="7.3984375" style="7" customWidth="1"/>
+    <col min="14" max="16" width="7.546875" style="7" customWidth="1"/>
+    <col min="17" max="16384" width="8.796875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="D1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
+        <v>3</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C4" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="44"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="39">
+        <v>0.46465580040152243</v>
+      </c>
+      <c r="E6" s="39">
+        <v>0.23967129060105186</v>
+      </c>
+      <c r="F6" s="39">
+        <v>0.10316068853917115</v>
+      </c>
+      <c r="G6" s="4">
+        <v>9.3058142877419758E-2</v>
+      </c>
+      <c r="H6" s="39">
+        <v>0.32501941001271573</v>
+      </c>
+      <c r="I6" s="39">
+        <v>0.28817118188761914</v>
+      </c>
+      <c r="J6" s="39">
+        <v>0.28154871487915489</v>
+      </c>
+      <c r="K6" s="40">
+        <v>2.9590917577085207E-2</v>
+      </c>
+      <c r="L6" s="40">
+        <v>1.6732265148181158E-2</v>
+      </c>
+      <c r="M6" s="41">
+        <v>1.5165050192138319E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="9">
+        <v>100</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="34">
+        <v>0.76811000925110395</v>
+      </c>
+      <c r="E7" s="34">
+        <v>0.25852905554669303</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6.6138141518418236E-2</v>
+      </c>
+      <c r="G7" s="34">
+        <v>8.6478798258151857E-2</v>
+      </c>
+      <c r="H7" s="34">
+        <v>0.41891111958404359</v>
+      </c>
+      <c r="I7" s="34">
+        <v>0.30720835585616069</v>
+      </c>
+      <c r="J7" s="34">
+        <v>0.31434135823624931</v>
+      </c>
+      <c r="K7" s="35">
+        <v>1.3924671276425826E-2</v>
+      </c>
+      <c r="L7" s="35">
+        <v>2.0660165320406376E-3</v>
+      </c>
+      <c r="M7" s="36">
+        <v>1.6841952887810541E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="39">
+        <v>1.0497464243160946</v>
+      </c>
+      <c r="E8" s="39">
+        <v>0.22767082343127409</v>
+      </c>
+      <c r="F8" s="39">
+        <v>0.1497943897295384</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.14707998321718418</v>
+      </c>
+      <c r="H8" s="39">
+        <v>0.49928767369627369</v>
+      </c>
+      <c r="I8" s="39">
+        <v>0.32749201293273611</v>
+      </c>
+      <c r="J8" s="39">
+        <v>0.33798127303913095</v>
+      </c>
+      <c r="K8" s="40">
+        <v>3.9192178622782015E-2</v>
+      </c>
+      <c r="L8" s="41">
+        <v>1.3447638910242476E-2</v>
+      </c>
+      <c r="M8" s="40">
+        <v>3.4180993094121925E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C9" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="34">
+        <v>1.2913613499146681</v>
+      </c>
+      <c r="E9" s="34">
+        <v>0.30592468712856635</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4.2509048492353263E-2</v>
+      </c>
+      <c r="G9" s="34">
+        <v>5.3108244321967812E-2</v>
+      </c>
+      <c r="H9" s="34">
+        <v>0.73788416248647359</v>
+      </c>
+      <c r="I9" s="34">
+        <v>0.46488745238388862</v>
+      </c>
+      <c r="J9" s="34">
+        <v>0.48084888733297881</v>
+      </c>
+      <c r="K9" s="36">
+        <v>1.5898619739677766E-2</v>
+      </c>
+      <c r="L9" s="35">
+        <v>2.0281996433658689E-2</v>
+      </c>
+      <c r="M9" s="35">
+        <v>3.6695129835188744E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C10" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="39">
+        <v>1.5034650304878321</v>
+      </c>
+      <c r="E10" s="39">
+        <v>0.39532059941385977</v>
+      </c>
+      <c r="F10" s="39">
+        <v>4.0110177908668332E-2</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1.7972764714840883E-2</v>
+      </c>
+      <c r="H10" s="39">
+        <v>0.85612362466235625</v>
+      </c>
+      <c r="I10" s="39">
+        <v>0.48930667231440106</v>
+      </c>
+      <c r="J10" s="39">
+        <v>0.51184183212275314</v>
+      </c>
+      <c r="K10" s="41">
+        <v>2.4257492660515911E-2</v>
+      </c>
+      <c r="L10" s="40">
+        <v>3.1038030764762192E-2</v>
+      </c>
+      <c r="M10" s="40">
+        <v>5.1567668517603193E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C11" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="34">
+        <v>1.7205489470652733</v>
+      </c>
+      <c r="E11" s="34">
+        <v>0.44927178355300956</v>
+      </c>
+      <c r="F11" s="1">
+        <v>9.428146435997764E-3</v>
+      </c>
+      <c r="G11" s="34">
+        <v>5.2407405983780464E-2</v>
+      </c>
+      <c r="H11" s="34">
+        <v>1.0073404831575106</v>
+      </c>
+      <c r="I11" s="34">
+        <v>0.55388726482786588</v>
+      </c>
+      <c r="J11" s="34">
+        <v>0.58428238007309563</v>
+      </c>
+      <c r="K11" s="35">
+        <v>4.4833977123417412E-2</v>
+      </c>
+      <c r="L11" s="35">
+        <v>1.6121116656512724E-2</v>
+      </c>
+      <c r="M11" s="36">
+        <v>1.5992899415019468E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="C13" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="44"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="9">
+        <v>0</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="K14" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="L14" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="M14" s="38" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="9">
+        <v>3</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15" s="39">
+        <v>1.1321469698686824</v>
+      </c>
+      <c r="E15" s="39">
+        <v>0.43404331839481936</v>
+      </c>
+      <c r="F15" s="39">
+        <v>7.548920485887578E-2</v>
+      </c>
+      <c r="G15" s="4">
+        <v>7.3706161951613614E-2</v>
+      </c>
+      <c r="H15" s="39">
+        <v>0.27726372453396309</v>
+      </c>
+      <c r="I15" s="39">
+        <v>9.4590246365134689E-2</v>
+      </c>
+      <c r="J15" s="39">
+        <v>0.10172245732290164</v>
+      </c>
+      <c r="K15" s="40">
+        <v>2.1666248763172469E-2</v>
+      </c>
+      <c r="L15" s="41">
+        <v>1.0414439661829755E-2</v>
+      </c>
+      <c r="M15" s="40">
+        <v>2.2827583451733524E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9">
+        <v>100</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" s="34">
+        <v>1.3437032278184069</v>
+      </c>
+      <c r="E16" s="34">
+        <v>0.44134712145099675</v>
+      </c>
+      <c r="F16" s="34">
+        <v>4.7017505644742941E-2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4.2381109986172394E-2</v>
+      </c>
+      <c r="H16" s="34">
+        <v>0.32508451758569357</v>
+      </c>
+      <c r="I16" s="34">
+        <v>5.3021528839646503E-2</v>
+      </c>
+      <c r="J16" s="34">
+        <v>6.5800626749601632E-2</v>
+      </c>
+      <c r="K16" s="35">
+        <v>2.8555875868883307E-2</v>
+      </c>
+      <c r="L16" s="36">
+        <v>1.3067750794611532E-2</v>
+      </c>
+      <c r="M16" s="35">
+        <v>2.4071995784955114E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="39">
+        <v>1.4617654808088081</v>
+      </c>
+      <c r="E17" s="39">
+        <v>0.39097133080777868</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1.5253429541755459E-2</v>
+      </c>
+      <c r="G17" s="39">
+        <v>6.2960847555783017E-2</v>
+      </c>
+      <c r="H17" s="39">
+        <v>0.34242603258440085</v>
+      </c>
+      <c r="I17" s="39">
+        <v>7.8097521780948309E-2</v>
+      </c>
+      <c r="J17" s="39">
+        <v>0.1072661445672356</v>
+      </c>
+      <c r="K17" s="40">
+        <v>9.1580232839223008E-2</v>
+      </c>
+      <c r="L17" s="41">
+        <v>8.5926743909468195E-2</v>
+      </c>
+      <c r="M17" s="40">
+        <v>9.5028191489012759E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C18" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="34">
+        <v>1.539933163783628</v>
+      </c>
+      <c r="E18" s="34">
+        <v>0.38580383700606524</v>
+      </c>
+      <c r="F18" s="34">
+        <v>0.22153703692883453</v>
+      </c>
+      <c r="G18" s="34">
+        <v>0.22621154148863676</v>
+      </c>
+      <c r="H18" s="34">
+        <v>0.34877018481648059</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.10804817591174731</v>
+      </c>
+      <c r="J18" s="34">
+        <v>0.12465822960679351</v>
+      </c>
+      <c r="K18" s="36">
+        <v>9.0915050505526063E-2</v>
+      </c>
+      <c r="L18" s="35">
+        <v>9.130849194888957E-2</v>
+      </c>
+      <c r="M18" s="35">
+        <v>0.10767578605766404</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C19" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" s="39">
+        <v>1.6041890041215665</v>
+      </c>
+      <c r="E19" s="39">
+        <v>0.36740612091920188</v>
+      </c>
+      <c r="F19" s="39">
+        <v>0.26706434260751299</v>
+      </c>
+      <c r="G19" s="39">
+        <v>0.27871959000551616</v>
+      </c>
+      <c r="H19" s="39">
+        <v>0.31761940247078035</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.11472789356034108</v>
+      </c>
+      <c r="J19" s="39">
+        <v>0.14703092077960345</v>
+      </c>
+      <c r="K19" s="40">
+        <v>0.11590151054471765</v>
+      </c>
+      <c r="L19" s="41">
+        <v>8.1467198160836363E-2</v>
+      </c>
+      <c r="M19" s="40">
+        <v>0.12880088111417254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C20" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="D20" s="34">
+        <v>1.6378975339326387</v>
+      </c>
+      <c r="E20" s="34">
+        <v>0.22480262166502407</v>
+      </c>
+      <c r="F20" s="34">
+        <v>0.12126089108425131</v>
+      </c>
+      <c r="G20" s="34">
+        <v>0.11202169387085792</v>
+      </c>
+      <c r="H20" s="34">
+        <v>0.23733140718398427</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1.8270708288502968E-2</v>
+      </c>
+      <c r="J20" s="34">
+        <v>3.2241101024763741E-2</v>
+      </c>
+      <c r="K20" s="35">
+        <v>0.11060268532180872</v>
+      </c>
+      <c r="L20" s="36">
+        <v>8.9238594179752551E-2</v>
+      </c>
+      <c r="M20" s="35">
+        <v>9.3796613469428247E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C13:M13"/>
+    <mergeCell ref="C4:M4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CDA8A3-FA8D-49B2-B8C8-F276E09238A2}">
+  <dimension ref="A1:Q46"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="2" width="4.34765625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.296875" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="8.796875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="D1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
+        <v>3</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C4" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="44"/>
+      <c r="H5" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" s="44"/>
+      <c r="J5" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="K5" s="44"/>
+      <c r="L5" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="M5" s="44"/>
+      <c r="N5" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="O5" s="44"/>
+      <c r="P5" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q5" s="44"/>
+    </row>
+    <row r="6" spans="1:17" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.2545</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.24929999999999999</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.26190000000000002</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="6">
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.1226</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="L6" s="3">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0.20369999999999999</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0.1047</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="9">
+        <v>100</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.499</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.48780000000000001</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.11650000000000001</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.20849999999999999</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.13389999999999999</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" s="2">
+        <v>5.91E-2</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="P7" s="2">
+        <v>2.98E-2</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.71040000000000003</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.70189999999999997</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.22650000000000001</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J8" s="6">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0.38379999999999997</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="P8" s="6">
+        <v>6.8900000000000003E-2</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.88090000000000002</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1.26E-2</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.2893</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.1358</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="L9" s="5">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0.43630000000000002</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="P9" s="5">
+        <v>6.9900000000000004E-2</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1.0497000000000001</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1.0345</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.31230000000000002</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.1976</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0.1221</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0.54139999999999999</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="P10" s="6">
+        <v>5.7299999999999997E-2</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1.1888000000000001</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1.1708000000000001</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2.98E-2</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.24360000000000001</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="P11" s="2">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1.2955000000000001</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1.2757000000000001</v>
+      </c>
+      <c r="F12" s="3">
+        <v>6.1600000000000002E-2</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.29089999999999999</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0.26860000000000001</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0.1734</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0.72289999999999999</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="P12" s="3">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="J16" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C17" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="34">
+        <v>0.25445481910705814</v>
+      </c>
+      <c r="E17" s="34">
+        <v>0.24929626028729568</v>
+      </c>
+      <c r="F17" s="34">
+        <v>0.26171021450164145</v>
+      </c>
+      <c r="G17" s="34">
+        <v>7.7748046881956911E-2</v>
+      </c>
+      <c r="H17" s="35">
+        <v>0.11157451644901095</v>
+      </c>
+      <c r="I17" s="1">
+        <v>5.2726382076057288E-2</v>
+      </c>
+      <c r="J17" s="34">
+        <v>1.54347940608488E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C18" s="46"/>
+      <c r="D18" s="34">
+        <v>0.19315802602785881</v>
+      </c>
+      <c r="E18" s="34">
+        <v>0.19981402027645415</v>
+      </c>
+      <c r="F18" s="34">
+        <v>0.47042716369846732</v>
+      </c>
+      <c r="G18" s="34">
+        <v>0.26045956883711524</v>
+      </c>
+      <c r="H18" s="34">
+        <v>0.49759722518039412</v>
+      </c>
+      <c r="I18" s="34">
+        <v>0.31723862437424893</v>
+      </c>
+      <c r="J18" s="34">
+        <v>0.16927671247859058</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C19" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="34">
+        <v>0.49898360676638154</v>
+      </c>
+      <c r="E19" s="34">
+        <v>0.48777695637694585</v>
+      </c>
+      <c r="F19" s="34">
+        <v>0.11375479426305679</v>
+      </c>
+      <c r="G19" s="34">
+        <v>0.12608999874334792</v>
+      </c>
+      <c r="H19" s="36">
+        <v>4.2261289295153937E-2</v>
+      </c>
+      <c r="I19" s="34">
+        <v>7.5055790777991849E-2</v>
+      </c>
+      <c r="J19" s="34">
+        <v>3.6618561375618697E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C20" s="48"/>
+      <c r="D20" s="34">
+        <v>0.30897358088079557</v>
+      </c>
+      <c r="E20" s="34">
+        <v>0.3149138143857721</v>
+      </c>
+      <c r="F20" s="34">
+        <v>0.56919307444587119</v>
+      </c>
+      <c r="G20" s="34">
+        <v>0.39235346855392667</v>
+      </c>
+      <c r="H20" s="34">
+        <v>0.56080748892701904</v>
+      </c>
+      <c r="I20" s="34">
+        <v>0.41946620157328279</v>
+      </c>
+      <c r="J20" s="34">
+        <v>0.2940154027080909</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C21" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="34">
+        <v>0.71040481507128295</v>
+      </c>
+      <c r="E21" s="34">
+        <v>0.7018752301655935</v>
+      </c>
+      <c r="F21" s="1">
+        <v>6.6449526348043575E-3</v>
+      </c>
+      <c r="G21" s="34">
+        <v>0.14743165413338066</v>
+      </c>
+      <c r="H21" s="35">
+        <v>1.2847670132576039E-2</v>
+      </c>
+      <c r="I21" s="34">
+        <v>4.6704354522525859E-2</v>
+      </c>
+      <c r="J21" s="34">
+        <v>3.6175016803480231E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C22" s="46"/>
+      <c r="D22" s="34">
+        <v>0.35494179993732222</v>
+      </c>
+      <c r="E22" s="34">
+        <v>0.36902175518942404</v>
+      </c>
+      <c r="F22" s="34">
+        <v>0.60321973098626591</v>
+      </c>
+      <c r="G22" s="34">
+        <v>0.47242344572655359</v>
+      </c>
+      <c r="H22" s="34">
+        <v>0.62122015681883136</v>
+      </c>
+      <c r="I22" s="34">
+        <v>0.53369216723915158</v>
+      </c>
+      <c r="J22" s="34">
+        <v>0.36475245561600839</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C23" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="34">
+        <v>0.89279612842426759</v>
+      </c>
+      <c r="E23" s="34">
+        <v>0.88092728433118284</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1.2466972440049684E-2</v>
+      </c>
+      <c r="G23" s="34">
+        <v>0.18621371866755987</v>
+      </c>
+      <c r="H23" s="35">
+        <v>5.6677716264107891E-2</v>
+      </c>
+      <c r="I23" s="34">
+        <v>0.12784155378328044</v>
+      </c>
+      <c r="J23" s="34">
+        <v>3.1773342292957807E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C24" s="48"/>
+      <c r="D24" s="34">
+        <v>0.3683249245303109</v>
+      </c>
+      <c r="E24" s="34">
+        <v>0.38087820234247866</v>
+      </c>
+      <c r="F24" s="34">
+        <v>0.64252595921955102</v>
+      </c>
+      <c r="G24" s="34">
+        <v>0.49416230053905624</v>
+      </c>
+      <c r="H24" s="34">
+        <v>0.68413890670900535</v>
+      </c>
+      <c r="I24" s="34">
+        <v>0.55178439753518815</v>
+      </c>
+      <c r="J24" s="34">
+        <v>0.40276417600585479</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C25" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="34">
+        <v>1.0497464243160946</v>
+      </c>
+      <c r="E25" s="34">
+        <v>1.0344753025789637</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1.3044964274366411E-2</v>
+      </c>
+      <c r="G25" s="34">
+        <v>0.15465737445712624</v>
+      </c>
+      <c r="H25" s="35">
+        <v>6.2176055068314806E-2</v>
+      </c>
+      <c r="I25" s="34">
+        <v>0.14839667408678303</v>
+      </c>
+      <c r="J25" s="34">
+        <v>1.3447638910242476E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C26" s="46"/>
+      <c r="D26" s="34">
+        <v>0.40096001001444825</v>
+      </c>
+      <c r="E26" s="34">
+        <v>0.41900254081614358</v>
+      </c>
+      <c r="F26" s="34">
+        <v>0.72595957518421939</v>
+      </c>
+      <c r="G26" s="34">
+        <v>0.59982330663486172</v>
+      </c>
+      <c r="H26" s="34">
+        <v>0.75659649522496175</v>
+      </c>
+      <c r="I26" s="34">
+        <v>0.59215995709826619</v>
+      </c>
+      <c r="J26" s="34">
+        <v>0.4670198644760496</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C27" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="34">
+        <v>1.188809246415953</v>
+      </c>
+      <c r="E27" s="34">
+        <v>1.170774949482654</v>
+      </c>
+      <c r="F27" s="34">
+        <v>3.3598451629436754E-2</v>
+      </c>
+      <c r="G27" s="34">
+        <v>0.1665425860795744</v>
+      </c>
+      <c r="H27" s="36">
+        <v>3.3238660846835133E-2</v>
+      </c>
+      <c r="I27" s="34">
+        <v>0.14562525510883484</v>
+      </c>
+      <c r="J27" s="34">
+        <v>2.6932744174883227E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C28" s="48"/>
+      <c r="D28" s="34">
+        <v>0.42687023173700755</v>
+      </c>
+      <c r="E28" s="34">
+        <v>0.45063539887540721</v>
+      </c>
+      <c r="F28" s="34">
+        <v>0.72785002687560296</v>
+      </c>
+      <c r="G28" s="34">
+        <v>0.62870960334932369</v>
+      </c>
+      <c r="H28" s="34">
+        <v>0.74976969620952383</v>
+      </c>
+      <c r="I28" s="34">
+        <v>0.68907407507859775</v>
+      </c>
+      <c r="J28" s="34">
+        <v>0.54841508059110722</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C29" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="34">
+        <v>1.2954765809845918</v>
+      </c>
+      <c r="E29" s="34">
+        <v>1.2757246745718542</v>
+      </c>
+      <c r="F29" s="34">
+        <v>6.8020457208084695E-2</v>
+      </c>
+      <c r="G29" s="34">
+        <v>0.21166540930870914</v>
+      </c>
+      <c r="H29" s="36">
+        <v>6.2422874285273711E-2</v>
+      </c>
+      <c r="I29" s="34">
+        <v>0.17145743590832474</v>
+      </c>
+      <c r="J29" s="34">
+        <v>1.7994125024534791E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C30" s="46"/>
+      <c r="D30" s="34">
+        <v>0.42935959290304115</v>
+      </c>
+      <c r="E30" s="34">
+        <v>0.46221756589475971</v>
+      </c>
+      <c r="F30" s="34">
+        <v>0.77189425074188467</v>
+      </c>
+      <c r="G30" s="34">
+        <v>0.70695922996202099</v>
+      </c>
+      <c r="H30" s="34">
+        <v>0.82759524903517812</v>
+      </c>
+      <c r="I30" s="34">
+        <v>0.74324981898765297</v>
+      </c>
+      <c r="J30" s="34">
+        <v>0.58554650557368948</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C32" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="H32" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="I32" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="J32" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C33" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="34">
+        <v>1.1552211628937887</v>
+      </c>
+      <c r="E33" s="34">
+        <v>1.1875321347681438</v>
+      </c>
+      <c r="F33" s="1">
+        <v>6.5355386369780444E-2</v>
+      </c>
+      <c r="G33" s="34">
+        <v>0.24399133850748722</v>
+      </c>
+      <c r="H33" s="34">
+        <v>9.7473169763667711E-2</v>
+      </c>
+      <c r="I33" s="34">
+        <v>0.17942723527369075</v>
+      </c>
+      <c r="J33" s="34">
+        <v>5.7891639878708823E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C34" s="46"/>
+      <c r="D34" s="34">
+        <v>0.1641021805828306</v>
+      </c>
+      <c r="E34" s="34">
+        <v>0.46317757677547361</v>
+      </c>
+      <c r="F34" s="34">
+        <v>0.34338565171966318</v>
+      </c>
+      <c r="G34" s="34">
+        <v>0.3159492193184138</v>
+      </c>
+      <c r="H34" s="34">
+        <v>0.34884386647620941</v>
+      </c>
+      <c r="I34" s="34">
+        <v>0.3298782896510507</v>
+      </c>
+      <c r="J34" s="34">
+        <v>0.23081380964361436</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C35" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="34">
+        <v>1.6461801509770257</v>
+      </c>
+      <c r="E35" s="34">
+        <v>1.6606456080881911</v>
+      </c>
+      <c r="F35" s="34">
+        <v>0.19599640534009954</v>
+      </c>
+      <c r="G35" s="34">
+        <v>0.26332328750284484</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.18091768408265163</v>
+      </c>
+      <c r="I35" s="34">
+        <v>0.24451690540518545</v>
+      </c>
+      <c r="J35" s="34">
+        <v>1.046813758198184E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C36" s="48"/>
+      <c r="D36" s="34">
+        <v>0.20084686361848289</v>
+      </c>
+      <c r="E36" s="34">
+        <v>0.56123974726500381</v>
+      </c>
+      <c r="F36" s="34">
+        <v>0.41770912237924696</v>
+      </c>
+      <c r="G36" s="34">
+        <v>0.43871338935223525</v>
+      </c>
+      <c r="H36" s="34">
+        <v>0.39894268765994528</v>
+      </c>
+      <c r="I36" s="34">
+        <v>0.43419313827422223</v>
+      </c>
+      <c r="J36" s="34">
+        <v>0.29386550550471702</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C37" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="34">
+        <v>1.9267164601104305</v>
+      </c>
+      <c r="E37" s="34">
+        <v>1.9552039914624277</v>
+      </c>
+      <c r="F37" s="34">
+        <v>0.22247296671366046</v>
+      </c>
+      <c r="G37" s="34">
+        <v>0.25024195165199936</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.19006455995179916</v>
+      </c>
+      <c r="I37" s="34">
+        <v>0.26623538008026726</v>
+      </c>
+      <c r="J37" s="34">
+        <v>3.4226265818404156E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C38" s="46"/>
+      <c r="D38" s="34">
+        <v>0.22805970741050183</v>
+      </c>
+      <c r="E38" s="34">
+        <v>0.59128621998841446</v>
+      </c>
+      <c r="F38" s="34">
+        <v>0.44413964946096762</v>
+      </c>
+      <c r="G38" s="34">
+        <v>0.51722010523659256</v>
+      </c>
+      <c r="H38" s="34">
+        <v>0.47159935850953066</v>
+      </c>
+      <c r="I38" s="34">
+        <v>0.55754698040027639</v>
+      </c>
+      <c r="J38" s="34">
+        <v>0.35145169464544662</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C39" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="34">
+        <v>2.1215204197621409</v>
+      </c>
+      <c r="E39" s="34">
+        <v>2.1424064990998715</v>
+      </c>
+      <c r="F39" s="34">
+        <v>0.27194992864907253</v>
+      </c>
+      <c r="G39" s="34">
+        <v>0.29530900895185597</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.19402239747912953</v>
+      </c>
+      <c r="I39" s="34">
+        <v>0.27008229073417511</v>
+      </c>
+      <c r="J39" s="34">
+        <v>7.2755465768690519E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C40" s="48"/>
+      <c r="D40" s="34">
+        <v>0.24895326614659169</v>
+      </c>
+      <c r="E40" s="34">
+        <v>0.62120138669468916</v>
+      </c>
+      <c r="F40" s="34">
+        <v>0.54967380726320103</v>
+      </c>
+      <c r="G40" s="34">
+        <v>0.59064387080057901</v>
+      </c>
+      <c r="H40" s="34">
+        <v>0.48454737733292941</v>
+      </c>
+      <c r="I40" s="34">
+        <v>0.58853697346348821</v>
+      </c>
+      <c r="J40" s="34">
+        <v>0.38037644941811372</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C41" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="34">
+        <v>2.2723316488465861</v>
+      </c>
+      <c r="E41" s="34">
+        <v>2.2806805538583022</v>
+      </c>
+      <c r="F41" s="34">
+        <v>0.30283464862441956</v>
+      </c>
+      <c r="G41" s="34">
+        <v>0.32005905986734096</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.20021879385013341</v>
+      </c>
+      <c r="I41" s="34">
+        <v>0.31635512892755169</v>
+      </c>
+      <c r="J41" s="34">
+        <v>8.8945056687938284E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C42" s="46"/>
+      <c r="D42" s="34">
+        <v>0.27259220941275741</v>
+      </c>
+      <c r="E42" s="34">
+        <v>0.6420006309265357</v>
+      </c>
+      <c r="F42" s="34">
+        <v>0.60321760700764682</v>
+      </c>
+      <c r="G42" s="34">
+        <v>0.64404379948268931</v>
+      </c>
+      <c r="H42" s="34">
+        <v>0.54448145982355056</v>
+      </c>
+      <c r="I42" s="34">
+        <v>0.67362585822192067</v>
+      </c>
+      <c r="J42" s="34">
+        <v>0.42518668809707999</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C43" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="34">
+        <v>2.4138784441516088</v>
+      </c>
+      <c r="E43" s="34">
+        <v>2.4189259764924822</v>
+      </c>
+      <c r="F43" s="34">
+        <v>0.3802857756296496</v>
+      </c>
+      <c r="G43" s="34">
+        <v>0.35767490382082978</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.27054222058741706</v>
+      </c>
+      <c r="I43" s="34">
+        <v>0.39655366452286622</v>
+      </c>
+      <c r="J43" s="34">
+        <v>5.9449358676993747E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C44" s="48"/>
+      <c r="D44" s="34">
+        <v>0.28433070584940034</v>
+      </c>
+      <c r="E44" s="34">
+        <v>0.65960601292735577</v>
+      </c>
+      <c r="F44" s="34">
+        <v>0.64700754148682238</v>
+      </c>
+      <c r="G44" s="34">
+        <v>0.63740666349858599</v>
+      </c>
+      <c r="H44" s="34">
+        <v>0.56487363327329043</v>
+      </c>
+      <c r="I44" s="34">
+        <v>0.70907420806422305</v>
+      </c>
+      <c r="J44" s="34">
+        <v>0.47090496494595435</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C45" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="34">
+        <v>2.5312188491012928</v>
+      </c>
+      <c r="E45" s="34">
+        <v>2.5356494170698607</v>
+      </c>
+      <c r="F45" s="34">
+        <v>0.43692682358597268</v>
+      </c>
+      <c r="G45" s="34">
+        <v>0.40138863649577927</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.29395727824247131</v>
+      </c>
+      <c r="I45" s="34">
+        <v>0.40980662979194626</v>
+      </c>
+      <c r="J45" s="34">
+        <v>4.6694526939670356E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C46" s="46"/>
+      <c r="D46" s="34">
+        <v>0.29507884766576919</v>
+      </c>
+      <c r="E46" s="34">
+        <v>0.67427080769202452</v>
+      </c>
+      <c r="F46" s="34">
+        <v>0.68959126538989746</v>
+      </c>
+      <c r="G46" s="34">
+        <v>0.68987127886432253</v>
+      </c>
+      <c r="H46" s="34">
+        <v>0.59353382355572648</v>
+      </c>
+      <c r="I46" s="34">
+        <v>0.75274354768693286</v>
+      </c>
+      <c r="J46" s="34">
+        <v>0.48741814902733832</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F5:G5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CE060C-EDFD-4A22-8191-C9BB0B42A61B}">
+  <dimension ref="A1:L42"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.5"/>
@@ -1159,18 +3452,18 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="28"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="44"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5" s="9" t="s">
@@ -1220,15 +3513,33 @@
       <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="D6" s="6">
+        <v>0.2545</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.24929999999999999</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.20380000000000001</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.183</v>
+      </c>
+      <c r="H6" s="28">
+        <v>0.1454</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.21809999999999999</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.23669999999999999</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.2525</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0.24379999999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A7" s="9" t="s">
@@ -1240,15 +3551,33 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="D7" s="5">
+        <v>0.499</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.48780000000000001</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.2064</v>
+      </c>
+      <c r="H7" s="29">
+        <v>0.13150000000000001</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.17069999999999999</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.1842</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.26550000000000001</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.25340000000000001</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A8" s="9" t="s">
@@ -1260,75 +3589,1050 @@
       <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="D8" s="6">
+        <v>0.71040000000000003</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.70189999999999997</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.38379999999999997</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.1666</v>
+      </c>
+      <c r="H8" s="3">
+        <v>9.8199999999999996E-2</v>
+      </c>
+      <c r="I8" s="28">
+        <v>8.9099999999999999E-2</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.12130000000000001</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.13719999999999999</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.1275</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="14.1" x14ac:dyDescent="0.5">
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="D9" s="5">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.88090000000000002</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.43630000000000002</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.1236</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.1178</v>
+      </c>
+      <c r="J9" s="2">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.1434</v>
+      </c>
+      <c r="L9" s="29">
+        <v>5.5800000000000002E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="14.1" x14ac:dyDescent="0.5">
       <c r="C10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="D10" s="6">
+        <v>1.0497000000000001</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1.0345</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.54139999999999999</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.2422</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.15890000000000001</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.1171</v>
+      </c>
+      <c r="J10" s="28">
+        <v>0.106</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.14449999999999999</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.11650000000000001</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="14.1" x14ac:dyDescent="0.5">
       <c r="C11" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="D11" s="5">
+        <v>1.1888000000000001</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1.1708000000000001</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.31669999999999998</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.2475</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.20250000000000001</v>
+      </c>
+      <c r="J11" s="29">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.28689999999999999</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.17269999999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="14.1" x14ac:dyDescent="0.5">
       <c r="C12" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="D12" s="6">
+        <v>1.2955000000000001</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1.2757000000000001</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.72289999999999999</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.31490000000000001</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.2208</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.26079999999999998</v>
+      </c>
+      <c r="J12" s="28">
+        <v>0.1812</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.309</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.19320000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="C14" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="44"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="L15" s="26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="9">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.2545</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.24929999999999999</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.20380000000000001</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.15040000000000001</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.11409999999999999</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0.1227</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0.17680000000000001</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0.23830000000000001</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0.20619999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="9">
+        <v>100</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.499</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.48780000000000001</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="H17" s="5">
+        <v>9.6799999999999997E-2</v>
+      </c>
+      <c r="I17" s="2">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="J17" s="5">
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="K17" s="5">
+        <v>8.6699999999999999E-2</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0.1351</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.71040000000000003</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.70189999999999997</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.38379999999999997</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.15079999999999999</v>
+      </c>
+      <c r="H18" s="6">
+        <v>4.65E-2</v>
+      </c>
+      <c r="I18" s="6">
+        <v>9.3399999999999997E-2</v>
+      </c>
+      <c r="J18" s="6">
+        <v>7.3700000000000002E-2</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0.1099</v>
+      </c>
+      <c r="L18" s="3">
+        <v>3.8E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.88090000000000002</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.43630000000000002</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.22439999999999999</v>
+      </c>
+      <c r="H19" s="5">
+        <v>8.7900000000000006E-2</v>
+      </c>
+      <c r="I19" s="2">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="J19" s="5">
+        <v>8.4699999999999998E-2</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0.10390000000000001</v>
+      </c>
+      <c r="L19" s="5">
+        <v>8.9099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1.0497000000000001</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1.0345</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.54139999999999999</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.2296</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0.122</v>
+      </c>
+      <c r="I20" s="6">
+        <v>4.5900000000000003E-2</v>
+      </c>
+      <c r="J20" s="6">
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="K20" s="6">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="L20" s="3">
+        <v>2.7000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1.1888000000000001</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1.1708000000000001</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.28870000000000001</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0.2298</v>
+      </c>
+      <c r="I21" s="5">
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="J21" s="5">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="K21" s="2">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="L21" s="5">
+        <v>1.6199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C22" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1.2955000000000001</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1.2757000000000001</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.72289999999999999</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.33029999999999998</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0.1391</v>
+      </c>
+      <c r="J22" s="6">
+        <v>6.5799999999999997E-2</v>
+      </c>
+      <c r="K22" s="6">
+        <v>7.7600000000000002E-2</v>
+      </c>
+      <c r="L22" s="3">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C24" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="51"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="9">
+        <v>0</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="K25" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="L25" s="26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="9">
+        <v>3</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.26790000000000003</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.23949999999999999</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.2626</v>
+      </c>
+      <c r="H26" s="28">
+        <v>0.2382</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0.3236</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0.31430000000000002</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0.3322</v>
+      </c>
+      <c r="L26" s="6">
+        <v>0.31669999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="9">
+        <v>100</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.50519999999999998</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.36270000000000002</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="H27" s="29">
+        <v>0.3115</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.36630000000000001</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0.40560000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0.72</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.71489999999999998</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0.4652</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.37219999999999998</v>
+      </c>
+      <c r="H28" s="28">
+        <v>0.35749999999999998</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0.39979999999999999</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0.3785</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0.378</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0.41439999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.88190000000000002</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.4471</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.44819999999999999</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.43630000000000002</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.41410000000000002</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0.48949999999999999</v>
+      </c>
+      <c r="L29" s="29">
+        <v>0.40189999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1.4097</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1.0345</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0.62009999999999998</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.51019999999999999</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.49819999999999998</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.47960000000000003</v>
+      </c>
+      <c r="J30" s="28">
+        <v>0.47189999999999999</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0.49969999999999998</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0.49059999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1.1888000000000001</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1.1708000000000001</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.74019999999999997</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.57620000000000005</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.52680000000000005</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.52880000000000005</v>
+      </c>
+      <c r="J31" s="29">
+        <v>0.51339999999999997</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0.58160000000000001</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0.53559999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C32" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1.2958000000000001</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1.2757000000000001</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0.79190000000000005</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.60309999999999997</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.58069999999999999</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0.57979999999999998</v>
+      </c>
+      <c r="J32" s="28">
+        <v>0.55820000000000003</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0.61480000000000001</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0.61360000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="C34" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="51"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A35" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="9">
+        <v>0</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="I35" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="J35" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="K35" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="L35" s="26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A36" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="9">
+        <v>3</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0.26790000000000003</v>
+      </c>
+      <c r="F36" s="30">
+        <v>0.23949999999999999</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0.24779999999999999</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0.31190000000000001</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0.33050000000000002</v>
+      </c>
+      <c r="J36" s="6">
+        <v>0.42459999999999998</v>
+      </c>
+      <c r="K36" s="6">
+        <v>0.44719999999999999</v>
+      </c>
+      <c r="L36" s="6">
+        <v>0.50170000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="9">
+        <v>100</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0.50519999999999998</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0.36270000000000002</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.36120000000000002</v>
+      </c>
+      <c r="H37" s="29">
+        <v>0.33679999999999999</v>
+      </c>
+      <c r="I37" s="5">
+        <v>0.40360000000000001</v>
+      </c>
+      <c r="J37" s="5">
+        <v>0.45329999999999998</v>
+      </c>
+      <c r="K37" s="5">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="L37" s="5">
+        <v>0.54449999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A38" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0.72</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0.71489999999999998</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0.4652</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.39150000000000001</v>
+      </c>
+      <c r="H38" s="28">
+        <v>0.37740000000000001</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0.42380000000000001</v>
+      </c>
+      <c r="J38" s="6">
+        <v>0.51590000000000003</v>
+      </c>
+      <c r="K38" s="6">
+        <v>0.57010000000000005</v>
+      </c>
+      <c r="L38" s="6">
+        <v>0.6069</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0.88190000000000002</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.46779999999999999</v>
+      </c>
+      <c r="H39" s="29">
+        <v>0.45040000000000002</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="K39" s="5">
+        <v>0.5575</v>
+      </c>
+      <c r="L39" s="5">
+        <v>0.56799999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="6">
+        <v>1.4097</v>
+      </c>
+      <c r="E40" s="6">
+        <v>1.0345</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0.62009999999999998</v>
+      </c>
+      <c r="G40" s="28">
+        <v>0.51390000000000002</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0.53069999999999995</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0.52529999999999999</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0.60509999999999997</v>
+      </c>
+      <c r="L40" s="3">
+        <v>0.58879999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1.1888000000000001</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1.1708000000000001</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0.74019999999999997</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.58889999999999998</v>
+      </c>
+      <c r="H41" s="29">
+        <v>0.56389999999999996</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0.56430000000000002</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0.63380000000000003</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0.66379999999999995</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0.63029999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C42" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="6">
+        <v>1.2958000000000001</v>
+      </c>
+      <c r="E42" s="6">
+        <v>1.2757000000000001</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0.79190000000000005</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.61050000000000004</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0.62419999999999998</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0.64970000000000006</v>
+      </c>
+      <c r="J42" s="28">
+        <v>0.58560000000000001</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0.64710000000000001</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0.64059999999999995</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="C4:L4"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="C24:L24"/>
+    <mergeCell ref="C34:L34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1336,7 +4640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E06F339-5823-456C-9361-24347B2ACC56}">
   <dimension ref="A1:K74"/>
   <sheetViews>
@@ -1391,17 +4695,17 @@
       <c r="B4" s="9">
         <v>0</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="28"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="44"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A5" s="9" t="s">
@@ -1410,25 +4714,25 @@
       <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="26" t="s">
+      <c r="E5" s="44"/>
+      <c r="F5" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="26" t="s">
+      <c r="G5" s="44"/>
+      <c r="H5" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="26" t="s">
+      <c r="I5" s="44"/>
+      <c r="J5" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="28"/>
+      <c r="K5" s="44"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A6" s="9" t="s">
@@ -1437,7 +4741,7 @@
       <c r="B6" s="9">
         <v>100</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="48"/>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1641,17 +4945,17 @@
       <c r="B13" s="9">
         <v>0</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="28"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="44"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A14" s="9" t="s">
@@ -1660,25 +4964,25 @@
       <c r="B14" s="9">
         <v>3</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="26" t="s">
+      <c r="E14" s="44"/>
+      <c r="F14" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="26" t="s">
+      <c r="G14" s="44"/>
+      <c r="H14" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="26" t="s">
+      <c r="I14" s="44"/>
+      <c r="J14" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="K14" s="28"/>
+      <c r="K14" s="44"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A15" s="9" t="s">
@@ -1687,7 +4991,7 @@
       <c r="B15" s="9">
         <v>100</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1891,17 +5195,17 @@
       <c r="B22" s="9">
         <v>0</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="28"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="44"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A23" s="9" t="s">
@@ -1910,25 +5214,25 @@
       <c r="B23" s="9">
         <v>3</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="26" t="s">
+      <c r="E23" s="44"/>
+      <c r="F23" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="28"/>
-      <c r="H23" s="26" t="s">
+      <c r="G23" s="44"/>
+      <c r="H23" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="I23" s="28"/>
-      <c r="J23" s="26" t="s">
+      <c r="I23" s="44"/>
+      <c r="J23" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="K23" s="28"/>
+      <c r="K23" s="44"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A24" s="9" t="s">
@@ -1937,7 +5241,7 @@
       <c r="B24" s="9">
         <v>100</v>
       </c>
-      <c r="C24" s="30"/>
+      <c r="C24" s="48"/>
       <c r="D24" s="1" t="s">
         <v>10</v>
       </c>
@@ -2141,15 +5445,15 @@
       <c r="B31" s="9">
         <v>0</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="28"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="44"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A32" s="9" t="s">
@@ -2158,21 +5462,21 @@
       <c r="B32" s="9">
         <v>2.5</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="28"/>
-      <c r="F32" s="26" t="s">
+      <c r="E32" s="44"/>
+      <c r="F32" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="28"/>
-      <c r="H32" s="26" t="s">
+      <c r="G32" s="44"/>
+      <c r="H32" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="28"/>
+      <c r="I32" s="44"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A33" s="9" t="s">
@@ -2181,7 +5485,7 @@
       <c r="B33" s="9">
         <v>0.5</v>
       </c>
-      <c r="C33" s="30"/>
+      <c r="C33" s="48"/>
       <c r="D33" s="1" t="s">
         <v>10</v>
       </c>
@@ -2350,15 +5654,15 @@
       <c r="B40" s="9">
         <v>0</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="28"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="44"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A41" s="9" t="s">
@@ -2367,21 +5671,21 @@
       <c r="B41" s="9">
         <v>2</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="D41" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="28"/>
-      <c r="F41" s="26" t="s">
+      <c r="E41" s="44"/>
+      <c r="F41" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="28"/>
-      <c r="H41" s="26" t="s">
+      <c r="G41" s="44"/>
+      <c r="H41" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="I41" s="28"/>
+      <c r="I41" s="44"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A42" s="9" t="s">
@@ -2390,7 +5694,7 @@
       <c r="B42" s="9">
         <v>1</v>
       </c>
-      <c r="C42" s="30"/>
+      <c r="C42" s="48"/>
       <c r="D42" s="1" t="s">
         <v>10</v>
       </c>
@@ -2559,15 +5863,15 @@
       <c r="B49" s="9">
         <v>0</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="28"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="44"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A50" s="9" t="s">
@@ -2576,21 +5880,21 @@
       <c r="B50" s="9">
         <v>1.5</v>
       </c>
-      <c r="C50" s="29" t="s">
+      <c r="C50" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="26" t="s">
+      <c r="D50" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="28"/>
-      <c r="F50" s="26" t="s">
+      <c r="E50" s="44"/>
+      <c r="F50" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G50" s="28"/>
-      <c r="H50" s="26" t="s">
+      <c r="G50" s="44"/>
+      <c r="H50" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="I50" s="28"/>
+      <c r="I50" s="44"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A51" s="9" t="s">
@@ -2599,7 +5903,7 @@
       <c r="B51" s="9">
         <v>1.5</v>
       </c>
-      <c r="C51" s="30"/>
+      <c r="C51" s="48"/>
       <c r="D51" s="1" t="s">
         <v>10</v>
       </c>
@@ -2768,15 +6072,15 @@
       <c r="B58" s="9">
         <v>0</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="C58" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="28"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="44"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A59" s="9" t="s">
@@ -2785,21 +6089,21 @@
       <c r="B59" s="9">
         <v>1</v>
       </c>
-      <c r="C59" s="29" t="s">
+      <c r="C59" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="26" t="s">
+      <c r="D59" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="28"/>
-      <c r="F59" s="26" t="s">
+      <c r="E59" s="44"/>
+      <c r="F59" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="28"/>
-      <c r="H59" s="26" t="s">
+      <c r="G59" s="44"/>
+      <c r="H59" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="I59" s="28"/>
+      <c r="I59" s="44"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A60" s="9" t="s">
@@ -2808,7 +6112,7 @@
       <c r="B60" s="9">
         <v>2</v>
       </c>
-      <c r="C60" s="30"/>
+      <c r="C60" s="48"/>
       <c r="D60" s="1" t="s">
         <v>10</v>
       </c>
@@ -2977,15 +6281,15 @@
       <c r="B67" s="9">
         <v>0</v>
       </c>
-      <c r="C67" s="26" t="s">
+      <c r="C67" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="28"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="44"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A68" s="9" t="s">
@@ -2994,21 +6298,21 @@
       <c r="B68" s="9">
         <v>0.5</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="C68" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D68" s="26" t="s">
+      <c r="D68" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E68" s="28"/>
-      <c r="F68" s="26" t="s">
+      <c r="E68" s="44"/>
+      <c r="F68" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G68" s="28"/>
-      <c r="H68" s="26" t="s">
+      <c r="G68" s="44"/>
+      <c r="H68" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="I68" s="28"/>
+      <c r="I68" s="44"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A69" s="9" t="s">
@@ -3017,7 +6321,7 @@
       <c r="B69" s="9">
         <v>2.5</v>
       </c>
-      <c r="C69" s="30"/>
+      <c r="C69" s="48"/>
       <c r="D69" s="1" t="s">
         <v>10</v>
       </c>
@@ -3231,7 +6535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3174BC4-9706-45FC-9367-6AA2E623F9F9}">
   <dimension ref="A1:K65"/>
   <sheetViews>
@@ -3286,17 +6590,17 @@
       <c r="B4" s="9">
         <v>0</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="28"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="44"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A5" s="9" t="s">
@@ -3305,25 +6609,25 @@
       <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="26" t="s">
+      <c r="E5" s="44"/>
+      <c r="F5" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="26" t="s">
+      <c r="G5" s="44"/>
+      <c r="H5" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="26" t="s">
+      <c r="I5" s="44"/>
+      <c r="J5" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="28"/>
+      <c r="K5" s="44"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A6" s="9" t="s">
@@ -3332,7 +6636,7 @@
       <c r="B6" s="9">
         <v>100</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="48"/>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
@@ -3536,17 +6840,17 @@
       <c r="B13" s="9">
         <v>0</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="28"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="44"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A14" s="9" t="s">
@@ -3555,25 +6859,25 @@
       <c r="B14" s="9">
         <v>0</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="26" t="s">
+      <c r="E14" s="44"/>
+      <c r="F14" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="26" t="s">
+      <c r="G14" s="44"/>
+      <c r="H14" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="26" t="s">
+      <c r="I14" s="44"/>
+      <c r="J14" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="28"/>
+      <c r="K14" s="44"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A15" s="9" t="s">
@@ -3582,7 +6886,7 @@
       <c r="B15" s="9">
         <v>3</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="1" t="s">
         <v>10</v>
       </c>
@@ -3792,15 +7096,15 @@
       <c r="B22" s="9">
         <v>0</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="28"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="44"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A23" s="9" t="s">
@@ -3809,21 +7113,21 @@
       <c r="B23" s="9">
         <v>2.5</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="26" t="s">
+      <c r="E23" s="44"/>
+      <c r="F23" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="28"/>
-      <c r="H23" s="26" t="s">
+      <c r="G23" s="44"/>
+      <c r="H23" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="28"/>
+      <c r="I23" s="44"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A24" s="9" t="s">
@@ -3832,7 +7136,7 @@
       <c r="B24" s="9">
         <v>0.5</v>
       </c>
-      <c r="C24" s="30"/>
+      <c r="C24" s="48"/>
       <c r="D24" s="1" t="s">
         <v>10</v>
       </c>
@@ -4001,15 +7305,15 @@
       <c r="B31" s="9">
         <v>0</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="28"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="44"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A32" s="9" t="s">
@@ -4018,21 +7322,21 @@
       <c r="B32" s="9">
         <v>2</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="28"/>
-      <c r="F32" s="26" t="s">
+      <c r="E32" s="44"/>
+      <c r="F32" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="28"/>
-      <c r="H32" s="26" t="s">
+      <c r="G32" s="44"/>
+      <c r="H32" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="I32" s="28"/>
+      <c r="I32" s="44"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A33" s="9" t="s">
@@ -4041,7 +7345,7 @@
       <c r="B33" s="9">
         <v>1</v>
       </c>
-      <c r="C33" s="30"/>
+      <c r="C33" s="48"/>
       <c r="D33" s="1" t="s">
         <v>10</v>
       </c>
@@ -4210,15 +7514,15 @@
       <c r="B40" s="9">
         <v>0</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="28"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="44"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A41" s="9" t="s">
@@ -4227,21 +7531,21 @@
       <c r="B41" s="9">
         <v>1.5</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="D41" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="28"/>
-      <c r="F41" s="26" t="s">
+      <c r="E41" s="44"/>
+      <c r="F41" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="28"/>
-      <c r="H41" s="26" t="s">
+      <c r="G41" s="44"/>
+      <c r="H41" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="I41" s="28"/>
+      <c r="I41" s="44"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A42" s="9" t="s">
@@ -4250,7 +7554,7 @@
       <c r="B42" s="9">
         <v>1.5</v>
       </c>
-      <c r="C42" s="30"/>
+      <c r="C42" s="48"/>
       <c r="D42" s="1" t="s">
         <v>10</v>
       </c>
@@ -4419,15 +7723,15 @@
       <c r="B49" s="9">
         <v>0</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="28"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="44"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A50" s="9" t="s">
@@ -4436,21 +7740,21 @@
       <c r="B50" s="9">
         <v>1</v>
       </c>
-      <c r="C50" s="29" t="s">
+      <c r="C50" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="26" t="s">
+      <c r="D50" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="28"/>
-      <c r="F50" s="26" t="s">
+      <c r="E50" s="44"/>
+      <c r="F50" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G50" s="28"/>
-      <c r="H50" s="26" t="s">
+      <c r="G50" s="44"/>
+      <c r="H50" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="I50" s="28"/>
+      <c r="I50" s="44"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A51" s="9" t="s">
@@ -4459,7 +7763,7 @@
       <c r="B51" s="9">
         <v>2</v>
       </c>
-      <c r="C51" s="30"/>
+      <c r="C51" s="48"/>
       <c r="D51" s="1" t="s">
         <v>10</v>
       </c>
@@ -4628,15 +7932,15 @@
       <c r="B58" s="9">
         <v>0</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="C58" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="28"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="44"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A59" s="9" t="s">
@@ -4645,21 +7949,21 @@
       <c r="B59" s="9">
         <v>0.5</v>
       </c>
-      <c r="C59" s="29" t="s">
+      <c r="C59" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="26" t="s">
+      <c r="D59" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="28"/>
-      <c r="F59" s="26" t="s">
+      <c r="E59" s="44"/>
+      <c r="F59" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="28"/>
-      <c r="H59" s="26" t="s">
+      <c r="G59" s="44"/>
+      <c r="H59" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="I59" s="28"/>
+      <c r="I59" s="44"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A60" s="9" t="s">
@@ -4668,7 +7972,7 @@
       <c r="B60" s="9">
         <v>2.5</v>
       </c>
-      <c r="C60" s="30"/>
+      <c r="C60" s="48"/>
       <c r="D60" s="1" t="s">
         <v>10</v>
       </c>
@@ -4876,7 +8180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6172D4-1552-4A91-BEBB-E75DBE13E8F4}">
   <dimension ref="A1:I20"/>
   <sheetViews>
@@ -4931,15 +8235,15 @@
       <c r="B4" s="9">
         <v>0</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="44"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" s="9" t="s">
@@ -4948,21 +8252,21 @@
       <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="26" t="s">
+      <c r="E5" s="44"/>
+      <c r="F5" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="26" t="s">
+      <c r="G5" s="44"/>
+      <c r="H5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="28"/>
+      <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" s="9" t="s">
@@ -4971,7 +8275,7 @@
       <c r="B6" s="9">
         <v>100</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="48"/>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
@@ -5134,15 +8438,15 @@
       <c r="B13" s="9">
         <v>0</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="44"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14" s="9" t="s">
@@ -5151,21 +8455,21 @@
       <c r="B14" s="9">
         <v>3</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="26" t="s">
+      <c r="E14" s="44"/>
+      <c r="F14" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="26" t="s">
+      <c r="G14" s="44"/>
+      <c r="H14" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="28"/>
+      <c r="I14" s="44"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" s="9" t="s">
@@ -5174,7 +8478,7 @@
       <c r="B15" s="9">
         <v>100</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="1" t="s">
         <v>10</v>
       </c>
@@ -5349,7 +8653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694FA8BF-FDF9-4164-B4EA-D9FA0E639984}">
   <dimension ref="A1:I29"/>
   <sheetViews>
@@ -5404,15 +8708,15 @@
       <c r="B4" s="9">
         <v>0</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="44"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" s="9" t="s">
@@ -5421,21 +8725,21 @@
       <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="26" t="s">
+      <c r="E5" s="44"/>
+      <c r="F5" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="26" t="s">
+      <c r="G5" s="44"/>
+      <c r="H5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="28"/>
+      <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" s="9" t="s">
@@ -5444,7 +8748,7 @@
       <c r="B6" s="9">
         <v>100</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="48"/>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
@@ -5607,15 +8911,15 @@
       <c r="B13" s="9">
         <v>0</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="44"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14" s="9" t="s">
@@ -5624,21 +8928,21 @@
       <c r="B14" s="9">
         <v>3</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="26" t="s">
+      <c r="E14" s="44"/>
+      <c r="F14" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="26" t="s">
+      <c r="G14" s="44"/>
+      <c r="H14" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="28"/>
+      <c r="I14" s="44"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" s="9" t="s">
@@ -5647,7 +8951,7 @@
       <c r="B15" s="9">
         <v>0.4</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="1" t="s">
         <v>10</v>
       </c>
@@ -5819,15 +9123,15 @@
       <c r="B22" s="9">
         <v>0</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="28"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="44"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23" s="9" t="s">
@@ -5836,21 +9140,21 @@
       <c r="B23" s="9">
         <v>3</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="26" t="s">
+      <c r="E23" s="44"/>
+      <c r="F23" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="28"/>
-      <c r="H23" s="26" t="s">
+      <c r="G23" s="44"/>
+      <c r="H23" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="28"/>
+      <c r="I23" s="44"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24" s="9" t="s">
@@ -5859,7 +9163,7 @@
       <c r="B24" s="9">
         <v>100</v>
       </c>
-      <c r="C24" s="30"/>
+      <c r="C24" s="48"/>
       <c r="D24" s="1" t="s">
         <v>10</v>
       </c>
@@ -6039,7 +9343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008E6B94-C183-4448-A9CE-DA3924432B8F}">
   <dimension ref="A1:K38"/>
   <sheetViews>
@@ -6094,17 +9398,17 @@
       <c r="B4" s="9">
         <v>0</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="28"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="44"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A5" s="9" t="s">
@@ -6113,25 +9417,25 @@
       <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="26" t="s">
+      <c r="E5" s="44"/>
+      <c r="F5" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="26" t="s">
+      <c r="G5" s="44"/>
+      <c r="H5" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="26" t="s">
+      <c r="I5" s="44"/>
+      <c r="J5" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="28"/>
+      <c r="K5" s="44"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A6" s="9" t="s">
@@ -6140,7 +9444,7 @@
       <c r="B6" s="9">
         <v>100</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="48"/>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
@@ -6344,17 +9648,17 @@
       <c r="B13" s="9">
         <v>0</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="28"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="44"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A14" s="9" t="s">
@@ -6363,25 +9667,25 @@
       <c r="B14" s="9">
         <v>3</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="26" t="s">
+      <c r="E14" s="44"/>
+      <c r="F14" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="26" t="s">
+      <c r="G14" s="44"/>
+      <c r="H14" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="26" t="s">
+      <c r="I14" s="44"/>
+      <c r="J14" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="28"/>
+      <c r="K14" s="44"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A15" s="9" t="s">
@@ -6390,7 +9694,7 @@
       <c r="B15" s="9">
         <v>100</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="1" t="s">
         <v>10</v>
       </c>
@@ -6594,17 +9898,17 @@
       <c r="B22" s="9">
         <v>0</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="28"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="44"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A23" s="9" t="s">
@@ -6613,25 +9917,25 @@
       <c r="B23" s="9">
         <v>3</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="26" t="s">
+      <c r="E23" s="44"/>
+      <c r="F23" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="28"/>
-      <c r="H23" s="26" t="s">
+      <c r="G23" s="44"/>
+      <c r="H23" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="28"/>
-      <c r="J23" s="26" t="s">
+      <c r="I23" s="44"/>
+      <c r="J23" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="K23" s="28"/>
+      <c r="K23" s="44"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A24" s="9" t="s">
@@ -6640,7 +9944,7 @@
       <c r="B24" s="9">
         <v>100</v>
       </c>
-      <c r="C24" s="30"/>
+      <c r="C24" s="48"/>
       <c r="D24" s="1" t="s">
         <v>10</v>
       </c>
@@ -6844,17 +10148,17 @@
       <c r="B31" s="9">
         <v>0</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="28"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="44"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A32" s="9" t="s">
@@ -6863,25 +10167,25 @@
       <c r="B32" s="9">
         <v>3</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="28"/>
-      <c r="F32" s="26" t="s">
+      <c r="E32" s="44"/>
+      <c r="F32" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="28"/>
-      <c r="H32" s="26" t="s">
+      <c r="G32" s="44"/>
+      <c r="H32" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="28"/>
-      <c r="J32" s="26" t="s">
+      <c r="I32" s="44"/>
+      <c r="J32" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="28"/>
+      <c r="K32" s="44"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A33" s="9" t="s">
@@ -6890,7 +10194,7 @@
       <c r="B33" s="9">
         <v>100</v>
       </c>
-      <c r="C33" s="30"/>
+      <c r="C33" s="48"/>
       <c r="D33" s="1" t="s">
         <v>10</v>
       </c>

--- a/result_balanced.xlsx
+++ b/result_balanced.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\MTVAE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5E864C-6470-4C83-B80A-B4AAEAD395DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88C5F14-112E-41A2-89D2-DBC20F8D9998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="119">
   <si>
     <t>β0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -503,6 +503,14 @@
   </si>
   <si>
     <t>D. Weighted (Zj)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D. Weighted (Zj), βW=0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E. Weighted (Zi, Zj), βW=0.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -676,7 +684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -769,6 +777,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1094,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08E365B-AB79-4783-B5A5-942B83EEF90E}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -1158,19 +1169,19 @@
     </row>
     <row r="3" spans="1:13" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.5"/>
     <row r="4" spans="1:13" s="7" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
     </row>
     <row r="5" spans="1:13" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.5">
       <c r="A5" s="9" t="s">
@@ -1444,19 +1455,19 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A14" s="9" t="s">
@@ -1736,19 +1747,19 @@
     <row r="22" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A22" s="33"/>
       <c r="B22" s="33"/>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A23" s="9" t="s">
@@ -2025,11 +2036,597 @@
         <v>6.6842471298251827E-3</v>
       </c>
     </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="9">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="G32" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="I32" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="J32" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="K32" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="L32" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="M32" s="34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A33" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="9">
+        <v>3</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="28">
+        <v>0.61684632544407236</v>
+      </c>
+      <c r="E33" s="28">
+        <v>0.38829657263418427</v>
+      </c>
+      <c r="F33" s="4">
+        <v>4.1635561811384392E-2</v>
+      </c>
+      <c r="G33" s="28">
+        <v>4.8303225624224178E-2</v>
+      </c>
+      <c r="H33" s="28">
+        <v>0.47501859588186734</v>
+      </c>
+      <c r="I33" s="28">
+        <v>0.437393334480773</v>
+      </c>
+      <c r="J33" s="28">
+        <v>0.42964358573964256</v>
+      </c>
+      <c r="K33" s="29">
+        <v>0.17639466256989422</v>
+      </c>
+      <c r="L33" s="29">
+        <v>0.16674654812472522</v>
+      </c>
+      <c r="M33" s="29">
+        <v>0.16240163262451879</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A34" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="9">
+        <v>100</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="23">
+        <v>0.92015344057205506</v>
+      </c>
+      <c r="E34" s="23">
+        <v>0.40977499543161011</v>
+      </c>
+      <c r="F34" s="23">
+        <v>7.9607149519838494E-2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>5.5415850797689403E-2</v>
+      </c>
+      <c r="H34" s="23">
+        <v>0.57008997740714284</v>
+      </c>
+      <c r="I34" s="23">
+        <v>0.46025349367146751</v>
+      </c>
+      <c r="J34" s="23">
+        <v>0.4656762232944518</v>
+      </c>
+      <c r="K34" s="24">
+        <v>0.1583026625987094</v>
+      </c>
+      <c r="L34" s="24">
+        <v>0.14602601489643297</v>
+      </c>
+      <c r="M34" s="24">
+        <v>0.14283394654596004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A35" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="28">
+        <v>1.2032379303905394</v>
+      </c>
+      <c r="E35" s="28">
+        <v>0.37586014916497557</v>
+      </c>
+      <c r="F35" s="4">
+        <v>7.5714437974960802E-4</v>
+      </c>
+      <c r="G35" s="4">
+        <v>6.1043862319909437E-4</v>
+      </c>
+      <c r="H35" s="28">
+        <v>0.6520062717925097</v>
+      </c>
+      <c r="I35" s="28">
+        <v>0.46757193562509958</v>
+      </c>
+      <c r="J35" s="28">
+        <v>0.48190633894330404</v>
+      </c>
+      <c r="K35" s="29">
+        <v>0.18389244754608502</v>
+      </c>
+      <c r="L35" s="29">
+        <v>0.16198105108826311</v>
+      </c>
+      <c r="M35" s="29">
+        <v>0.17907886136518192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="23">
+        <v>1.4459458171470074</v>
+      </c>
+      <c r="E36" s="23">
+        <v>0.44881066047958207</v>
+      </c>
+      <c r="F36" s="23">
+        <v>0.1073945778726475</v>
+      </c>
+      <c r="G36" s="1">
+        <v>9.9762482295230992E-2</v>
+      </c>
+      <c r="H36" s="23">
+        <v>0.88703262687142592</v>
+      </c>
+      <c r="I36" s="23">
+        <v>0.60797640063739578</v>
+      </c>
+      <c r="J36" s="23">
+        <v>0.62621842636912106</v>
+      </c>
+      <c r="K36" s="24">
+        <v>0.16068460900632964</v>
+      </c>
+      <c r="L36" s="24">
+        <v>0.16892434723917282</v>
+      </c>
+      <c r="M36" s="24">
+        <v>0.18147497459749529</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="28">
+        <v>1.6586473919241564</v>
+      </c>
+      <c r="E37" s="28">
+        <v>0.55220959876594455</v>
+      </c>
+      <c r="F37" s="28">
+        <v>0.18186640216161654</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0.15718783628505695</v>
+      </c>
+      <c r="H37" s="28">
+        <v>1.011418181461059</v>
+      </c>
+      <c r="I37" s="28">
+        <v>0.65156219412166116</v>
+      </c>
+      <c r="J37" s="28">
+        <v>0.66854484184432361</v>
+      </c>
+      <c r="K37" s="29">
+        <v>0.16871686677066355</v>
+      </c>
+      <c r="L37" s="29">
+        <v>0.17895331213980303</v>
+      </c>
+      <c r="M37" s="29">
+        <v>0.19613479220218988</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="23">
+        <v>1.8769451447595724</v>
+      </c>
+      <c r="E38" s="23">
+        <v>0.6015558178107856</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.16553208335131275</v>
+      </c>
+      <c r="G38" s="23">
+        <v>0.20146273577545681</v>
+      </c>
+      <c r="H38" s="23">
+        <v>1.1503482724964638</v>
+      </c>
+      <c r="I38" s="23">
+        <v>0.69044796505794293</v>
+      </c>
+      <c r="J38" s="23">
+        <v>0.73590505573646459</v>
+      </c>
+      <c r="K38" s="24">
+        <v>9.9925596947363804E-2</v>
+      </c>
+      <c r="L38" s="24">
+        <v>0.13215867886106802</v>
+      </c>
+      <c r="M38" s="24">
+        <v>0.12865364305395577</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A40" s="34"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A41" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="9">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="G41" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="H41" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="I41" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="J41" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="K41" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="L41" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="M41" s="34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A42" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="9">
+        <v>3</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="28">
+        <v>0.70714250802224887</v>
+      </c>
+      <c r="E42" s="28">
+        <v>0.47641070473986935</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0.12646282347273874</v>
+      </c>
+      <c r="G42" s="28">
+        <v>0.13734616658919219</v>
+      </c>
+      <c r="H42" s="28">
+        <v>0.56313796984006181</v>
+      </c>
+      <c r="I42" s="28">
+        <v>0.52540055739021629</v>
+      </c>
+      <c r="J42" s="28">
+        <v>0.51890463615115689</v>
+      </c>
+      <c r="K42" s="29">
+        <v>0.26277620994315232</v>
+      </c>
+      <c r="L42" s="29">
+        <v>0.24685693361392591</v>
+      </c>
+      <c r="M42" s="29">
+        <v>0.24742698819210229</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A43" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="9">
+        <v>100</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="23">
+        <v>1.0169346309057499</v>
+      </c>
+      <c r="E43" s="23">
+        <v>0.4951488682417553</v>
+      </c>
+      <c r="F43" s="23">
+        <v>0.16091419907987636</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.14187798439269783</v>
+      </c>
+      <c r="H43" s="23">
+        <v>0.66296006578692124</v>
+      </c>
+      <c r="I43" s="23">
+        <v>0.55298163434833469</v>
+      </c>
+      <c r="J43" s="23">
+        <v>0.55982427491883691</v>
+      </c>
+      <c r="K43" s="24">
+        <v>0.24379993949207712</v>
+      </c>
+      <c r="L43" s="24">
+        <v>0.22487673828849264</v>
+      </c>
+      <c r="M43" s="24">
+        <v>0.2271950446490536</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A44" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="28">
+        <v>1.3037943288887242</v>
+      </c>
+      <c r="E44" s="28">
+        <v>0.45532413287322093</v>
+      </c>
+      <c r="F44" s="4">
+        <v>6.9453603231573124E-2</v>
+      </c>
+      <c r="G44" s="28">
+        <v>7.4868240670498354E-2</v>
+      </c>
+      <c r="H44" s="28">
+        <v>0.74312554438167266</v>
+      </c>
+      <c r="I44" s="28">
+        <v>0.56342505900823614</v>
+      </c>
+      <c r="J44" s="28">
+        <v>0.5738614234645254</v>
+      </c>
+      <c r="K44" s="29">
+        <v>0.26598689143488419</v>
+      </c>
+      <c r="L44" s="29">
+        <v>0.23757781713684833</v>
+      </c>
+      <c r="M44" s="29">
+        <v>0.26037240687370633</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A45" s="34"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="23">
+        <v>1.5490858541789465</v>
+      </c>
+      <c r="E45" s="23">
+        <v>0.53587580178302741</v>
+      </c>
+      <c r="F45" s="23">
+        <v>0.1812130949673838</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.16944687178800844</v>
+      </c>
+      <c r="H45" s="23">
+        <v>0.97929171376024349</v>
+      </c>
+      <c r="I45" s="23">
+        <v>0.7064570555151275</v>
+      </c>
+      <c r="J45" s="23">
+        <v>0.71956830307637487</v>
+      </c>
+      <c r="K45" s="24">
+        <v>0.23909566213007771</v>
+      </c>
+      <c r="L45" s="24">
+        <v>0.24073556701959054</v>
+      </c>
+      <c r="M45" s="24">
+        <v>0.25992925836000613</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A46" s="34"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="28">
+        <v>1.76646310960429</v>
+      </c>
+      <c r="E46" s="28">
+        <v>0.62517564183723806</v>
+      </c>
+      <c r="F46" s="28">
+        <v>0.2632528969869441</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0.23799719703561739</v>
+      </c>
+      <c r="H46" s="28">
+        <v>1.1020665770420077</v>
+      </c>
+      <c r="I46" s="28">
+        <v>0.71993897509987415</v>
+      </c>
+      <c r="J46" s="28">
+        <v>0.74056037163649369</v>
+      </c>
+      <c r="K46" s="29">
+        <v>0.2455326196082126</v>
+      </c>
+      <c r="L46" s="29">
+        <v>0.25003377996825193</v>
+      </c>
+      <c r="M46" s="29">
+        <v>0.27301828747985812</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="23">
+        <v>1.9913528647249756</v>
+      </c>
+      <c r="E47" s="23">
+        <v>0.68243417094871783</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.24296567360743926</v>
+      </c>
+      <c r="G47" s="23">
+        <v>0.2802066432878243</v>
+      </c>
+      <c r="H47" s="23">
+        <v>1.2576350488159229</v>
+      </c>
+      <c r="I47" s="23">
+        <v>0.79838215610584351</v>
+      </c>
+      <c r="J47" s="23">
+        <v>0.83384053339249276</v>
+      </c>
+      <c r="K47" s="24">
+        <v>0.17696779285274511</v>
+      </c>
+      <c r="L47" s="24">
+        <v>0.20262555090350753</v>
+      </c>
+      <c r="M47" s="24">
+        <v>0.20623045613639324</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="C4:M4"/>
     <mergeCell ref="C13:M13"/>
     <mergeCell ref="C22:M22"/>
+    <mergeCell ref="C31:M31"/>
+    <mergeCell ref="C40:M40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2101,19 +2698,19 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A5" s="9" t="s">
@@ -2398,19 +2995,19 @@
       <c r="M12" s="22"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="38"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A14" s="9" t="s">
@@ -2754,11 +3351,11 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A5" s="9" t="s">
@@ -2776,30 +3373,30 @@
       <c r="E5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="35" t="s">
+      <c r="G5" s="38"/>
+      <c r="H5" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="35" t="s">
+      <c r="I5" s="38"/>
+      <c r="J5" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="35" t="s">
+      <c r="K5" s="38"/>
+      <c r="L5" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="37"/>
-      <c r="N5" s="35" t="s">
+      <c r="M5" s="38"/>
+      <c r="N5" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="37"/>
-      <c r="P5" s="35" t="s">
+      <c r="O5" s="38"/>
+      <c r="P5" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="Q5" s="37"/>
+      <c r="Q5" s="38"/>
     </row>
     <row r="6" spans="1:17" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A6" s="9" t="s">
@@ -3175,7 +3772,7 @@
       </c>
     </row>
     <row r="17" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="39" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="23">
@@ -3201,7 +3798,7 @@
       </c>
     </row>
     <row r="18" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="C18" s="39"/>
+      <c r="C18" s="40"/>
       <c r="D18" s="23">
         <v>0.19315802602785881</v>
       </c>
@@ -3225,7 +3822,7 @@
       </c>
     </row>
     <row r="19" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="41" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="23">
@@ -3251,7 +3848,7 @@
       </c>
     </row>
     <row r="20" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="C20" s="41"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="23">
         <v>0.30897358088079557</v>
       </c>
@@ -3275,7 +3872,7 @@
       </c>
     </row>
     <row r="21" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="39" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="23">
@@ -3301,7 +3898,7 @@
       </c>
     </row>
     <row r="22" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="C22" s="39"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="23">
         <v>0.35494179993732222</v>
       </c>
@@ -3325,7 +3922,7 @@
       </c>
     </row>
     <row r="23" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="41" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="23">
@@ -3351,7 +3948,7 @@
       </c>
     </row>
     <row r="24" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="C24" s="41"/>
+      <c r="C24" s="42"/>
       <c r="D24" s="23">
         <v>0.3683249245303109</v>
       </c>
@@ -3375,7 +3972,7 @@
       </c>
     </row>
     <row r="25" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="39" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="23">
@@ -3401,7 +3998,7 @@
       </c>
     </row>
     <row r="26" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="C26" s="39"/>
+      <c r="C26" s="40"/>
       <c r="D26" s="23">
         <v>0.40096001001444825</v>
       </c>
@@ -3425,7 +4022,7 @@
       </c>
     </row>
     <row r="27" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="41" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="23">
@@ -3451,7 +4048,7 @@
       </c>
     </row>
     <row r="28" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="C28" s="41"/>
+      <c r="C28" s="42"/>
       <c r="D28" s="23">
         <v>0.42687023173700755</v>
       </c>
@@ -3475,7 +4072,7 @@
       </c>
     </row>
     <row r="29" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="39" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="23">
@@ -3501,7 +4098,7 @@
       </c>
     </row>
     <row r="30" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="C30" s="39"/>
+      <c r="C30" s="40"/>
       <c r="D30" s="23">
         <v>0.42935959290304115</v>
       </c>
@@ -3551,7 +4148,7 @@
       </c>
     </row>
     <row r="33" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="39" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="23">
@@ -3577,7 +4174,7 @@
       </c>
     </row>
     <row r="34" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="C34" s="39"/>
+      <c r="C34" s="40"/>
       <c r="D34" s="23">
         <v>0.1641021805828306</v>
       </c>
@@ -3601,7 +4198,7 @@
       </c>
     </row>
     <row r="35" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="41" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="23">
@@ -3627,7 +4224,7 @@
       </c>
     </row>
     <row r="36" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="C36" s="41"/>
+      <c r="C36" s="42"/>
       <c r="D36" s="23">
         <v>0.20084686361848289</v>
       </c>
@@ -3651,7 +4248,7 @@
       </c>
     </row>
     <row r="37" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="39" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="23">
@@ -3677,7 +4274,7 @@
       </c>
     </row>
     <row r="38" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="C38" s="39"/>
+      <c r="C38" s="40"/>
       <c r="D38" s="23">
         <v>0.22805970741050183</v>
       </c>
@@ -3701,7 +4298,7 @@
       </c>
     </row>
     <row r="39" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="C39" s="40" t="s">
+      <c r="C39" s="41" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="23">
@@ -3727,7 +4324,7 @@
       </c>
     </row>
     <row r="40" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="C40" s="41"/>
+      <c r="C40" s="42"/>
       <c r="D40" s="23">
         <v>0.24895326614659169</v>
       </c>
@@ -3751,7 +4348,7 @@
       </c>
     </row>
     <row r="41" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="C41" s="38" t="s">
+      <c r="C41" s="39" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="23">
@@ -3777,7 +4374,7 @@
       </c>
     </row>
     <row r="42" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="C42" s="39"/>
+      <c r="C42" s="40"/>
       <c r="D42" s="23">
         <v>0.27259220941275741</v>
       </c>
@@ -3801,7 +4398,7 @@
       </c>
     </row>
     <row r="43" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="C43" s="40" t="s">
+      <c r="C43" s="41" t="s">
         <v>26</v>
       </c>
       <c r="D43" s="23">
@@ -3827,7 +4424,7 @@
       </c>
     </row>
     <row r="44" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="C44" s="41"/>
+      <c r="C44" s="42"/>
       <c r="D44" s="23">
         <v>0.28433070584940034</v>
       </c>
@@ -3851,7 +4448,7 @@
       </c>
     </row>
     <row r="45" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="C45" s="38" t="s">
+      <c r="C45" s="39" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="23">
@@ -3877,7 +4474,7 @@
       </c>
     </row>
     <row r="46" spans="3:10" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="C46" s="39"/>
+      <c r="C46" s="40"/>
       <c r="D46" s="23">
         <v>0.29507884766576919</v>
       </c>
@@ -3902,27 +4499,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3992,18 +4589,18 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="38"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5" s="9" t="s">
@@ -4286,18 +4883,18 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="38"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A15" s="9" t="s">
@@ -4580,18 +5177,18 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="45"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A25" s="9" t="s">
@@ -4874,18 +5471,18 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="45"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A35" s="9" t="s">
